--- a/strings.xlsx
+++ b/strings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\voice-coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udyan Sharma\Documents\GitHub\voice-coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E12FC94-18EB-4CF5-BA18-2A4C4AE9C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92845F5E-D610-42DC-B0CD-171CF0128167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{848E789F-D63B-439B-9B16-7F9F10881151}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{848E789F-D63B-439B-9B16-7F9F10881151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">STRING </t>
+    <t xml:space="preserve">string_declaration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slice a string </t>
   </si>
 </sst>
 </file>
@@ -388,15 +382,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A14461-913E-4045-BFD4-0F18EB3E9698}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
